--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249096.8933418255</v>
+        <v>242660.3687662389</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11206477.46903363</v>
+        <v>11205887.48964322</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>353.785440154132</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>173.374067696986</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722305</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.1368592263279</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.29687356600532</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>24.02230597417445</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>107.536789632031</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>24.2456158758965</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>75.06226065551434</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722305</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>112.5633434999038</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.66649621608301</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>381.7228736769095</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>135.4725613016855</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.43541356874151</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>26.3260897706293</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.09823475200999</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56193620051366</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>32.6564842209821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>172.349538035847</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>11.65031489816608</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>58.5770459601831</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>8.688300182606898</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2324,7 +2324,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2792,25 +2792,25 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077821</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110054</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414326</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404338</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418609</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292002</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419571</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007171</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035613</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219384</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507295</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484022</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723235</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538044</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497633</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943225</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391316</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972065</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838884</v>
+        <v>24.17382596574973</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828896</v>
+        <v>52.06849973564985</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431729</v>
+        <v>70.57601873167818</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459969</v>
+        <v>55.72314698196058</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643942</v>
+        <v>41.29686219380031</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931853</v>
+        <v>41.22330424667942</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390858</v>
+        <v>42.97275566644669</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147793</v>
+        <v>53.79159358883882</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804998</v>
+        <v>41.14384575541087</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922191</v>
+        <v>18.9835613365828</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367783</v>
+        <v>9.882059701038713</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920514</v>
+        <v>88.00800320656603</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325497</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.212130050281</v>
+        <v>1278.176883026124</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.036628553212</v>
+        <v>1278.176883026124</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>1278.176883026124</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>1278.176883026124</v>
       </c>
       <c r="F2" t="n">
-        <v>376.7010612998571</v>
+        <v>861.2824445561022</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1826.595477606227</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606227</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="V2" t="n">
-        <v>1961.664735117224</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="W2" t="n">
-        <v>1961.664735117224</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.212130050281</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.212130050281</v>
+        <v>1678.671628737521</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365388</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.31846137548</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737749</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.1146220458172</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="C4" t="n">
-        <v>356.3804063225795</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D4" t="n">
-        <v>356.3804063225795</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>918.6853137684216</v>
       </c>
       <c r="U4" t="n">
-        <v>585.3226407371185</v>
+        <v>633.2465220103225</v>
       </c>
       <c r="V4" t="n">
-        <v>585.3226407371185</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="W4" t="n">
-        <v>585.3226407371185</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="X4" t="n">
-        <v>585.3226407371185</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="Y4" t="n">
-        <v>585.3226407371185</v>
+        <v>367.2671768311467</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>498.1781155598097</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="C5" t="n">
-        <v>389.5550957294753</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D5" t="n">
-        <v>389.5550957294753</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>389.5550957294753</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274598</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424337</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.259363687036</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.162605382318</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.163570350605</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.163570350605</v>
+        <v>2050.671816730156</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.6728612712066</v>
+        <v>2050.671816730156</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679.7304610040794</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>679.7304610040794</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>549.6414936255597</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>413.1950027364475</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>288.7631966195793</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>168.7033786914437</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475497</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653869</v>
+        <v>642.3356118811473</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637618</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515168</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886235</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019522</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369533</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.5267954450408</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="C7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="D7" t="n">
-        <v>476.1472529396809</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="E7" t="n">
-        <v>476.1472529396809</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F7" t="n">
-        <v>476.1472529396809</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865303</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="V7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="W7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="X7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="Y7" t="n">
-        <v>476.1472529396809</v>
+        <v>678.2751606822026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1794.3239112715</v>
+        <v>1980.069844797474</v>
       </c>
       <c r="C8" t="n">
-        <v>1401.14840977443</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1480.107509811048</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.147110703377</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.814620350899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2190.814620350899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2190.814620350899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>2190.814620350899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.3239112715</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.5286012068507</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>371.3234832728399</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>348.6614493650202</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>348.6614493650202</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>348.6614493650202</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
         <v>180.4073954644657</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>541.5286012068507</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>541.5286012068507</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.5286012068507</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.987110988345</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.607884637469</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D11" t="n">
-        <v>1105.963031000331</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>775.1757812630694</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>430.077617939241</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>88.71113757343825</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>88.71113757343825</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2974.776241907151</v>
       </c>
       <c r="V11" t="n">
-        <v>3011.239105293021</v>
+        <v>2974.776241907151</v>
       </c>
       <c r="W11" t="n">
-        <v>2712.036345407502</v>
+        <v>2675.573482021633</v>
       </c>
       <c r="X11" t="n">
-        <v>2394.380015486753</v>
+        <v>2357.917152100884</v>
       </c>
       <c r="Y11" t="n">
-        <v>2069.685581553548</v>
+        <v>2033.222718167679</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.5024430196813</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="C13" t="n">
-        <v>315.0936002318644</v>
+        <v>431.9167858811177</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318644</v>
+        <v>348.0799479298263</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372608</v>
+        <v>264.3174109352228</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964276</v>
+        <v>178.7877512943896</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>178.7877512943896</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>95.10547540207745</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628196</v>
+        <v>741.859755591563</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401912</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="X13" t="n">
-        <v>661.3454373401912</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.0296513030285</v>
+        <v>530.3256286689345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.485543579474</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.106317228599</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.46146359146</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>922.6742138541988</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>577.5760505303706</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>236.2095701645671</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3094.188390359144</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2942.484063064755</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2942.484063064755</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2672.173528914467</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.534777998631</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="X14" t="n">
-        <v>2541.878448077882</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.184014144677</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>472.8495292029531</v>
+        <v>391.1926183007849</v>
       </c>
       <c r="C16" t="n">
-        <v>472.8495292029531</v>
+        <v>292.7837755129682</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208437</v>
@@ -5443,7 +5443,7 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
         <v>999.6269248138162</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1437.563908521394</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.712833143251</v>
+        <v>1437.563908521394</v>
       </c>
       <c r="U16" t="n">
-        <v>1152.070316531346</v>
+        <v>1223.921391909488</v>
       </c>
       <c r="V16" t="n">
-        <v>957.887246498364</v>
+        <v>1029.738321876507</v>
       </c>
       <c r="W16" t="n">
-        <v>746.3531195757355</v>
+        <v>818.2041949538783</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5770587852232</v>
+        <v>655.9201478830553</v>
       </c>
       <c r="Y16" t="n">
-        <v>586.2612727480605</v>
+        <v>504.6043618458924</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
         <v>1223.947919817482</v>
@@ -5665,34 +5665,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,10 +5789,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,10 +5835,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
         <v>1458.313011372373</v>
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,16 +6020,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072212</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458635</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6449,64 +6449,64 @@
         <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390262</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471387994</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662612</v>
+        <v>700.0178648958364</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614363</v>
+        <v>1286.389518343939</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388517</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755553</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377455</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508976</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379498</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377511</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.67007360575</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452355</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.218987229504</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278172</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985366</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551712</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414152</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117756</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573178</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102268</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.29817721028</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286463</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988178</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026496</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108103</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>118.0461921907172</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>118.0461921907172</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>601.6122780890305</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965124</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237456</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431908</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067503</v>
+        <v>342.9206752648155</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805501</v>
+        <v>507.0483151386153</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458844</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041639</v>
+        <v>988.1816480830715</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872942</v>
+        <v>1256.686073727025</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,28 +6956,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,13 +7014,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862326</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162811</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1634.317313094942</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7655,10 +7655,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031230018</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222421</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960418</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343059</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655151</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072231</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838017</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5110292636026</v>
+        <v>390.0367011443648</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>346.6921127901703</v>
+        <v>170.2276803222891</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399943</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>223.7967200283821</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8298,22 +8298,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539907</v>
+        <v>210.8379091467822</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>413.5901686882534</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>267.5348030643886</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>517.3131487114046</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>117.494503443537</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9726,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9954,7 +9954,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>658.1108392979577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069881</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.54934357309856</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>146.0186551230054</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.71568990914264</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>28.0286844935788</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>77.41436949859526</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.11979221546187</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.13256462436104</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>151.9729064175079</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>984663.4632690544</v>
+        <v>984362.6894621742</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>984663.4632690544</v>
+        <v>984362.6894621742</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873443.0194839194</v>
+        <v>873443.0194839196</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873443.0194839196</v>
+        <v>873443.0194839197</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.4849493711</v>
       </c>
       <c r="C2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.484949371</v>
       </c>
       <c r="D2" t="n">
         <v>288531.4849493708</v>
@@ -26335,16 +26335,16 @@
         <v>288531.4849493707</v>
       </c>
       <c r="J2" t="n">
-        <v>288531.4849493702</v>
+        <v>288531.4849493703</v>
       </c>
       <c r="K2" t="n">
         <v>288531.4849493703</v>
       </c>
       <c r="L2" t="n">
-        <v>288531.4849493705</v>
+        <v>288531.4849493708</v>
       </c>
       <c r="M2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493708</v>
       </c>
       <c r="N2" t="n">
         <v>288531.4849493708</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.7885158943</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589428</v>
+        <v>86988.7885158943</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26436,7 +26436,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
         <v>135498.1974718596</v>
@@ -26445,19 +26445,19 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713761</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="P4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138433.5692717374</v>
+        <v>-134984.4448780827</v>
       </c>
       <c r="C6" t="n">
-        <v>43771.37902011852</v>
+        <v>38874.21215597208</v>
       </c>
       <c r="D6" t="n">
-        <v>38331.83704429428</v>
+        <v>30595.54782090249</v>
       </c>
       <c r="E6" t="n">
-        <v>2677.067789261608</v>
+        <v>2467.336242572017</v>
       </c>
       <c r="F6" t="n">
-        <v>114799.6292633062</v>
+        <v>114589.8977166166</v>
       </c>
       <c r="G6" t="n">
-        <v>48188.68508969276</v>
+        <v>48188.68508969282</v>
       </c>
       <c r="H6" t="n">
-        <v>95614.01062637474</v>
+        <v>95614.01062637469</v>
       </c>
       <c r="I6" t="n">
-        <v>95614.01062637451</v>
+        <v>95614.01062637454</v>
       </c>
       <c r="J6" t="n">
-        <v>-117427.9069709114</v>
+        <v>-110911.6218163381</v>
       </c>
       <c r="K6" t="n">
-        <v>89374.24222359125</v>
+        <v>89374.24222359119</v>
       </c>
       <c r="L6" t="n">
-        <v>34191.6532889704</v>
+        <v>30142.81607849827</v>
       </c>
       <c r="M6" t="n">
-        <v>53413.18116675147</v>
+        <v>52361.48615556356</v>
       </c>
       <c r="N6" t="n">
-        <v>95614.01062637474</v>
+        <v>95614.01062637469</v>
       </c>
       <c r="O6" t="n">
-        <v>67846.31658360336</v>
+        <v>67846.3165836033</v>
       </c>
       <c r="P6" t="n">
-        <v>95614.01062637466</v>
+        <v>95614.0106263746</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,10 +26802,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="H4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,13 +26814,13 @@
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443779</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>55.24568780274484</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>165.3116735065308</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758576</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863157</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>125.2061931886654</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>209.3395553392737</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>281.7069568500676</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>361.3124631403772</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.35218157989074</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758576</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>54.00816986164516</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>253.9179076244351</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>14.7669245773734</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>117.7226409680619</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>131.6413683977689</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28071,7 +28071,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,11 +28980,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29305,10 +29305,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901113</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>30.272237659013</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431655</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431655</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683159835</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566361</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861253948</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224698</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082769</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155852</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>35.71049010668801</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668902</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>250.3925379258185</v>
+        <v>240.9182098065806</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>254.0045539012814</v>
+        <v>77.54012143340024</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>33.7182633095026</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>74.23288260428575</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046787</v>
+        <v>118.4507870974703</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>263.2887214473282</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>180.451438245074</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
         <v>236.863807216752</v>
@@ -35580,13 +35580,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>424.9260266620927</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36446,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094867</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,10 +36601,10 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7387264437911</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851001</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907926</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425276</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254081</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192277</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201029</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698328</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576762</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215748</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446904</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>487.9795421773846</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833034</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098201</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993495</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>271.2165915595486</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453558</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835636</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453571</v>
       </c>
       <c r="P40" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529949</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
